--- a/data-raw/fluxes/lf_bay/lf_bay_b_2018-11-16.xlsx
+++ b/data-raw/fluxes/lf_bay/lf_bay_b_2018-11-16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/inst/extdata/fluxes/lf_bay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4678C43-6BEC-5D43-8186-D4154B476921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50878158-335C-9844-99DD-EF18080C693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="5500" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
+    <workbookView xWindow="14320" yWindow="5500" windowWidth="25600" windowHeight="15540" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
   <sheets>
     <sheet name="evap" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -194,12 +194,6 @@
   </si>
   <si>
     <t>2 Valine</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>DMSO</t>
   </si>
   <si>
     <t>run</t>
@@ -562,109 +556,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>-24</v>
       </c>
       <c r="C2">
-        <v>-24</v>
-      </c>
-      <c r="D2">
         <v>39.357399999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
         <v>50.972499999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
         <v>50.55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>48</v>
-      </c>
-      <c r="D5">
         <v>50.244999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>72</v>
-      </c>
-      <c r="D6">
         <v>49.916699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
       </c>
       <c r="C7">
-        <v>96</v>
-      </c>
-      <c r="D7">
         <v>49.521799999999999</v>
       </c>
     </row>
@@ -685,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1329,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1991,7 +1964,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2653,7 +2626,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3307,7 +3280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C978D0-9FD8-9042-9B5F-3CF5D620CB7E}">
   <dimension ref="A1:AV51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+    <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="AP37" sqref="AP37:AQ37"/>
     </sheetView>
   </sheetViews>
@@ -3315,7 +3288,7 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
